--- a/db/Slated.xlsx
+++ b/db/Slated.xlsx
@@ -225,44 +225,40 @@
     <row r="2" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A2">
         <is>
-          <t xml:space="preserve">21CRB01459</t>
+          <t xml:space="preserve">20CRB01185</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B2">
         <is>
-          <t xml:space="preserve">21CRB01459-A</t>
+          <t xml:space="preserve">20CRB01185-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C2">
         <is>
-          <t xml:space="preserve">SHANKLIN</t>
+          <t xml:space="preserve">MYERS</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D2">
         <is>
-          <t xml:space="preserve">DEMIA</t>
+          <t xml:space="preserve">ANTHONY</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E2">
         <is>
-          <t xml:space="preserve">POSS MARIHUANA DRUG PARAPHERNALIA</t>
+          <t xml:space="preserve">CRIMINAL MISCHIEF</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F2">
         <is>
-          <t xml:space="preserve">2925.141C</t>
+          <t xml:space="preserve">2909.07(A)(1)</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G2">
         <is>
-          <t xml:space="preserve">MM</t>
-        </is>
-      </c>
-      <c s="1" t="inlineStr" r="H2">
-        <is>
-          <t xml:space="preserve">U</t>
-        </is>
-      </c>
+          <t xml:space="preserve">M3</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H2"/>
       <c s="2" t="b" r="I2">
         <v>0</v>
       </c>
@@ -270,32 +266,32 @@
     <row r="3" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">22CRB00098</t>
+          <t xml:space="preserve">20TRD04430</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">22CRB00098-A</t>
+          <t xml:space="preserve">20TRD04430-A</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">COLVIN</t>
+          <t xml:space="preserve">SUMAREH</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D3">
         <is>
-          <t xml:space="preserve">JESSICA</t>
+          <t xml:space="preserve">SAMBALA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">DOMESTIC VIOLENCE  M1</t>
+          <t xml:space="preserve">DUS                     M1</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">2919.25A</t>
+          <t xml:space="preserve">4510.11</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G3">
@@ -303,53 +299,1584 @@
           <t xml:space="preserve">M1</t>
         </is>
       </c>
-      <c s="1" t="str" r="H3"/>
+      <c s="1" t="inlineStr" r="H3">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
       <c s="2" t="b" r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="0">
       <c s="1" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">22CRB00098</t>
+          <t xml:space="preserve">20TRD04430</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">22CRB00098-B</t>
+          <t xml:space="preserve">20TRD04430-B</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">COLVIN</t>
+          <t xml:space="preserve">SUMAREH</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="D4">
         <is>
-          <t xml:space="preserve">JESSICA</t>
+          <t xml:space="preserve">SAMBALA</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">ASSAULT</t>
+          <t xml:space="preserve">NO VALID OL   UCM</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">2903.13</t>
+          <t xml:space="preserve">4510.12</t>
         </is>
       </c>
       <c s="1" t="inlineStr" r="G4">
         <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H4">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A5">
+        <is>
+          <t xml:space="preserve">20TRD04430</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B5">
+        <is>
+          <t xml:space="preserve">20TRD04430-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C5">
+        <is>
+          <t xml:space="preserve">SUMAREH</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D5">
+        <is>
+          <t xml:space="preserve">SAMBALA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E5">
+        <is>
+          <t xml:space="preserve">1ST SPEED IN 1 YR &gt;70MPH</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F5">
+        <is>
+          <t xml:space="preserve">4511.21D4</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G5">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H5">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A6">
+        <is>
+          <t xml:space="preserve">21CRB00626</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B6">
+        <is>
+          <t xml:space="preserve">21CRB00626-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C6">
+        <is>
+          <t xml:space="preserve">FREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D6">
+        <is>
+          <t xml:space="preserve">WAYNE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E6">
+        <is>
+          <t xml:space="preserve">CRIMINAL MISCHIEF</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F6">
+        <is>
+          <t xml:space="preserve">2909.07(A)(1)</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G6">
+        <is>
+          <t xml:space="preserve">M3</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H6"/>
+      <c s="2" t="b" r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A7">
+        <is>
+          <t xml:space="preserve">21CRB00626</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B7">
+        <is>
+          <t xml:space="preserve">21CRB00626-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C7">
+        <is>
+          <t xml:space="preserve">FREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D7">
+        <is>
+          <t xml:space="preserve">WAYNE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E7">
+        <is>
+          <t xml:space="preserve">ASSAULT - M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F7">
+        <is>
+          <t xml:space="preserve">2903.13(A)</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G7">
+        <is>
           <t xml:space="preserve">M1</t>
         </is>
       </c>
-      <c s="1" t="str" r="H4"/>
-      <c s="2" t="b" r="I4">
+      <c s="1" t="str" r="H7"/>
+      <c s="2" t="b" r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="23.5" customHeight="1"/>
+    <row r="8" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A8">
+        <is>
+          <t xml:space="preserve">21CRB00626</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">21CRB00626-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">FREY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D8">
+        <is>
+          <t xml:space="preserve">WAYNE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E8">
+        <is>
+          <t xml:space="preserve">DISORDERLY CONDUCT</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F8">
+        <is>
+          <t xml:space="preserve">2917.11A1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G8">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H8"/>
+      <c s="2" t="b" r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A9">
+        <is>
+          <t xml:space="preserve">21TRD03683</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">21TRD03683-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">HILL</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D9">
+        <is>
+          <t xml:space="preserve">SEAN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">1ST ACDA IN 1 YR SPEED SECT</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">4511.21A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A10">
+        <is>
+          <t xml:space="preserve">21TRD09026</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">21TRD09026-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">GARZA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D10">
+        <is>
+          <t xml:space="preserve">ROBERTO</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E10">
+        <is>
+          <t xml:space="preserve">DUS UNDER FRA OR JUDGMENT SUSP</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">4510.16</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A11">
+        <is>
+          <t xml:space="preserve">21TRD09026</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">21TRD09026-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C11">
+        <is>
+          <t xml:space="preserve">GARZA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D11">
+        <is>
+          <t xml:space="preserve">ROBERTO</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E11">
+        <is>
+          <t xml:space="preserve">OPERATING W/O A VALID OL - UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F11">
+        <is>
+          <t xml:space="preserve">4510.12</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G11">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H11">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">21TRD09026</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">21TRD09026-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">GARZA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D12">
+        <is>
+          <t xml:space="preserve">ROBERTO</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E12">
+        <is>
+          <t xml:space="preserve">FICTITIOUS PLATES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">4549.08(A)</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">M4</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H12">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">21TRD09026</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">21TRD09026-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">GARZA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D13">
+        <is>
+          <t xml:space="preserve">ROBERTO</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve">FICTITIOUS PLATES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">4549.08(A)</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve">M4</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A14">
+        <is>
+          <t xml:space="preserve">21TRD09026</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">21TRD09026-D</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">GARZA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D14">
+        <is>
+          <t xml:space="preserve">ROBERTO</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve">FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve">4503.11</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">21TRD09026</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">21TRD09026-D</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">GARZA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D15">
+        <is>
+          <t xml:space="preserve">ROBERTO</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">FAILURE TO FILE REGISTRATION</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">4503.11</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">22CRB00136</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">22CRB00136-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">FISHER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D16">
+        <is>
+          <t xml:space="preserve">BRENDA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">DOMESTIC VIOLENCE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">2919.25(A)</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G16"/>
+      <c s="1" t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A17">
+        <is>
+          <t xml:space="preserve">22CRB00136</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">22CRB00136-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">FISHER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D17">
+        <is>
+          <t xml:space="preserve">BRENDA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">ASSAULT - M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">2903.13(A)</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G17"/>
+      <c s="1" t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A18">
+        <is>
+          <t xml:space="preserve">22CRB00137</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">22CRB00137-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">SETTLES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D18">
+        <is>
+          <t xml:space="preserve">DARREN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">AGGRAVATED MENACING</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">2903.21</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G18"/>
+      <c s="1" t="str" r="H18"/>
+      <c s="2" t="b" r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A19">
+        <is>
+          <t xml:space="preserve">22CRB00137</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">22CRB00137-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">SETTLES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D19">
+        <is>
+          <t xml:space="preserve">DARREN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">DOMESTIC VIOLENCE </t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">2919.25(C)</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G19"/>
+      <c s="1" t="str" r="H19"/>
+      <c s="2" t="b" r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">22CRB00137</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">22CRB00137-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">SETTLES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D20">
+        <is>
+          <t xml:space="preserve">DARREN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">DISORDERLY CONDUCT - MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">2917.11(A)(1)*</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G20"/>
+      <c s="1" t="str" r="H20"/>
+      <c s="2" t="b" r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A21">
+        <is>
+          <t xml:space="preserve">22CRB00140</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">22CRB00140-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">HERMAN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D21">
+        <is>
+          <t xml:space="preserve">NANCY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">DOMESTIC VIOLENCE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">2919.25(A)</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A22">
+        <is>
+          <t xml:space="preserve">22CRB00140</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">22CRB00140-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">HERMAN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D22">
+        <is>
+          <t xml:space="preserve">NANCY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">ASSAULT - M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">2903.13(A)</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="G22"/>
+      <c s="1" t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A23">
+        <is>
+          <t xml:space="preserve">22CRB00140</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">22CRB00140-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">HERMAN</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D23">
+        <is>
+          <t xml:space="preserve">NANCY</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">DISORDERLY CONDUCT IST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">2917.11</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A24">
+        <is>
+          <t xml:space="preserve">22CRB00141</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">22CRB00141-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">FUNDERBURKE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D24">
+        <is>
+          <t xml:space="preserve">DWAYNE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">ASSAULT - M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">2903.13(A)</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="str" r="H24"/>
+      <c s="2" t="b" r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A25">
+        <is>
+          <t xml:space="preserve">22CRB00142</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">22CRB00142-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">BRYANT</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D25">
+        <is>
+          <t xml:space="preserve">CHERIKA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">THEFT / M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F25">
+        <is>
+          <t xml:space="preserve">2913.02(A)(1)*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G25">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve">U</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A26">
+        <is>
+          <t xml:space="preserve">22TRC00871</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">22TRC00871-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">SCHMOTZER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D26">
+        <is>
+          <t xml:space="preserve">TAMBRA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F26">
+        <is>
+          <t xml:space="preserve">4511.19A1A*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G26">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A27">
+        <is>
+          <t xml:space="preserve">22TRC00871</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">22TRC00871-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C27">
+        <is>
+          <t xml:space="preserve">SCHMOTZER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D27">
+        <is>
+          <t xml:space="preserve">TAMBRA</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E27">
+        <is>
+          <t xml:space="preserve">DRIVING IN MARKED LANES</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F27">
+        <is>
+          <t xml:space="preserve">4511.33</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G27">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A28">
+        <is>
+          <t xml:space="preserve">22TRC00877</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">22TRC00877-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C28">
+        <is>
+          <t xml:space="preserve">Perez</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D28">
+        <is>
+          <t xml:space="preserve">Michael</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">OVI ALCOHOL / DRUGS 1ST</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F28">
+        <is>
+          <t xml:space="preserve">4511.19A1A*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A29">
+        <is>
+          <t xml:space="preserve">22TRC00877</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">22TRC00877-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C29">
+        <is>
+          <t xml:space="preserve">Perez</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D29">
+        <is>
+          <t xml:space="preserve">Michael</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E29">
+        <is>
+          <t xml:space="preserve">OVI BREATH 1ST .17 &amp; ABOVE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F29">
+        <is>
+          <t xml:space="preserve">4511.19A1H*</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G29">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H29">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A30">
+        <is>
+          <t xml:space="preserve">22TRC00877</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">22TRC00877-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C30">
+        <is>
+          <t xml:space="preserve">Perez</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D30">
+        <is>
+          <t xml:space="preserve">Michael</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E30">
+        <is>
+          <t xml:space="preserve">OPERATING W/O A OL - UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F30">
+        <is>
+          <t xml:space="preserve">4510.12</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G30">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A31">
+        <is>
+          <t xml:space="preserve">22TRC00877</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">22TRC00877-D</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">Perez</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D31">
+        <is>
+          <t xml:space="preserve">Michael</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E31">
+        <is>
+          <t xml:space="preserve">FAIL TO CONTROL</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">4511.202</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G31">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A32">
+        <is>
+          <t xml:space="preserve">22TRC00877</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">22TRC00877-E</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C32">
+        <is>
+          <t xml:space="preserve">Perez</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D32">
+        <is>
+          <t xml:space="preserve">Michael</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E32">
+        <is>
+          <t xml:space="preserve">SEATBELT REQUIRED DRIVER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">4513.263B1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G32">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A33">
+        <is>
+          <t xml:space="preserve">22TRD00869</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">22TRD00869-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C33">
+        <is>
+          <t xml:space="preserve">Golke</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D33">
+        <is>
+          <t xml:space="preserve">Jonathan</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E33">
+        <is>
+          <t xml:space="preserve">DUS - DRIVING UNDER OVI SUSP</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">4510.14A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G33">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A34">
+        <is>
+          <t xml:space="preserve">22TRD00869</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">22TRD00869-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C34">
+        <is>
+          <t xml:space="preserve">Golke</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D34">
+        <is>
+          <t xml:space="preserve">Jonathan</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E34">
+        <is>
+          <t xml:space="preserve">1ST SPEED 1 YR REDUCED ZONE</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F34">
+        <is>
+          <t xml:space="preserve">4511.21</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G34">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H34">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A35">
+        <is>
+          <t xml:space="preserve">22TRD00870</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">22TRD00870-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C35">
+        <is>
+          <t xml:space="preserve">GRUBER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D35">
+        <is>
+          <t xml:space="preserve">JON</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E35">
+        <is>
+          <t xml:space="preserve">DUS - DRIVING UNDER OVI SUSP</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F35">
+        <is>
+          <t xml:space="preserve">4510.14</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G35">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A36">
+        <is>
+          <t xml:space="preserve">22TRD00870</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">22TRD00870-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">GRUBER</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D36">
+        <is>
+          <t xml:space="preserve">JON</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E36">
+        <is>
+          <t xml:space="preserve">IMMOBILIZATION OR DISABLING DEVICE VIOL</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">4510.44</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G36">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve">Y</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A37">
+        <is>
+          <t xml:space="preserve">22TRD00874</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">22TRD00874-A</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">Seymour</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D37">
+        <is>
+          <t xml:space="preserve">E</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">DUS - DRIVING UNDER OVI SUSP</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">4510.14</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G37">
+        <is>
+          <t xml:space="preserve">M1</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A38">
+        <is>
+          <t xml:space="preserve">22TRD00874</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">22TRD00874-B</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">Seymour</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D38">
+        <is>
+          <t xml:space="preserve">E</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">NO OL NEVER LICENSED UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F38">
+        <is>
+          <t xml:space="preserve">4510.12</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G38">
+        <is>
+          <t xml:space="preserve">UCM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="18" customHeight="0">
+      <c s="1" t="inlineStr" r="A39">
+        <is>
+          <t xml:space="preserve">22TRD00874</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">22TRD00874-C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="C39">
+        <is>
+          <t xml:space="preserve">Seymour</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="D39">
+        <is>
+          <t xml:space="preserve">E</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="E39">
+        <is>
+          <t xml:space="preserve">TINTED GLASS</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">4513.241C</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="G39">
+        <is>
+          <t xml:space="preserve">MM</t>
+        </is>
+      </c>
+      <c s="1" t="inlineStr" r="H39">
+        <is>
+          <t xml:space="preserve">N</t>
+        </is>
+      </c>
+      <c s="2" t="b" r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="23.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/db/Slated.xlsx
+++ b/db/Slated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\AppData\Local\Programs\Python\Python310\MuniEntry\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB128611-B9A2-4616-AF0C-200A464EF7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B98E0D-0015-47DD-8FA6-C492796BFB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27030" yWindow="10785" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MuniEntryPleas" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -876,14 +876,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="12" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="38.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -959,7 +961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="38.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -997,7 +999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="25.5">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="25.5">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="38.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="38.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="38.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="38.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="38.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1257,7 +1259,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="25.5">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -1293,7 +1295,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="38.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1329,7 +1331,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="38.25">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1365,7 +1367,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="38.25">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1401,7 +1403,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="25.5">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -1437,7 +1439,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="38.25">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -1473,7 +1475,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="38.25">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -1509,7 +1511,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="38.25">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -1545,7 +1547,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="25.5">
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
@@ -1581,7 +1583,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="51">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -1617,7 +1619,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="25.5">
       <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
@@ -1653,7 +1655,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="25.5">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -1689,7 +1691,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="38.25">
       <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
@@ -1725,7 +1727,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="51">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -1761,7 +1763,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="25.5">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -1797,7 +1799,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="25.5">
       <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
@@ -1827,7 +1829,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="25.5">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -1863,7 +1865,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="38.25">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -1895,7 +1897,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="38.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="38.25">
       <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
@@ -1927,7 +1929,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="23.55" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:12" ht="23.55" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/db/Slated.xlsx
+++ b/db/Slated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\AppData\Local\Programs\Python\Python310\MuniEntry\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkudela\AppData\Local\Programs\Python\Python310\MuniEntry\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B98E0D-0015-47DD-8FA6-C492796BFB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB614A21-13B2-4CA3-86C5-11CCEEB209C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27030" yWindow="10785" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MuniEntryPleas" sheetId="1" r:id="rId1"/>
@@ -20,43 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Sub Case</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Moving</t>
-  </si>
-  <si>
-    <t>Atty Last</t>
-  </si>
-  <si>
-    <t>Atty First</t>
-  </si>
-  <si>
-    <t>Atty Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="126">
   <si>
     <t>17TRD22590</t>
   </si>
@@ -88,9 +52,6 @@
     <t>JOHN</t>
   </si>
   <si>
-    <t>PD</t>
-  </si>
-  <si>
     <t>20TRC09471</t>
   </si>
   <si>
@@ -401,6 +362,42 @@
   </si>
   <si>
     <t>4511.13C</t>
+  </si>
+  <si>
+    <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>SubCaseNumber</t>
+  </si>
+  <si>
+    <t>DefLastName</t>
+  </si>
+  <si>
+    <t>DefFirstName</t>
+  </si>
+  <si>
+    <t>ChargeDescription</t>
+  </si>
+  <si>
+    <t>SectionCode</t>
+  </si>
+  <si>
+    <t>DegreeCode</t>
+  </si>
+  <si>
+    <t>InsuranceStatus</t>
+  </si>
+  <si>
+    <t>IsMoving</t>
+  </si>
+  <si>
+    <t>AttorneyLastName</t>
+  </si>
+  <si>
+    <t>AttorneyFirstName</t>
+  </si>
+  <si>
+    <t>PubDef</t>
   </si>
 </sst>
 </file>
@@ -876,954 +873,954 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="13.73046875" customWidth="1"/>
+    <col min="1" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="38.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="38.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="b">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="25.5">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="38.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="38.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="b">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="38.25">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="38.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
+      <c r="I9" s="2">
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="38.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
+      <c r="I10" s="2">
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="25.5">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="2" t="b">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="38.25">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="2" t="b">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="38.25">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="2" t="b">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="38.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="38.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="38.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="38.25">
       <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="25.5">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="51">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="25.5">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="25.5">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="38.25">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="51">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="25.5">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1831,66 +1828,66 @@
     </row>
     <row r="27" spans="1:12" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="38.25">
       <c r="A28" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" s="1"/>
@@ -1899,37 +1896,37 @@
     </row>
     <row r="29" spans="1:12" ht="38.25">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="2" t="b">
+        <v>61</v>
+      </c>
+      <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="23.55" customHeight="1"/>
+    <row r="30" spans="1:12" ht="23.65" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
